--- a/DataREU.xlsx
+++ b/DataREU.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AA577/Desktop/Forced Migration Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB50BB8-4237-F24F-8C67-BC45B5DD1FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44372C0-30A2-3A40-A1E8-0EC1C1B27583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1000" windowWidth="25380" windowHeight="16180" xr2:uid="{4CBA8017-8F9F-A640-BDF0-67BB444B5898}"/>
+    <workbookView xWindow="3360" yWindow="4860" windowWidth="25380" windowHeight="16180" xr2:uid="{4CBA8017-8F9F-A640-BDF0-67BB444B5898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Demographic</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>GS_Title42Exp_US</t>
+  </si>
+  <si>
+    <t>Mex_US_Border</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C862173-849F-3242-9C85-0C981F667060}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -424,7 +427,7 @@
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +449,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>43739</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="G2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>43770</v>
       </c>
@@ -492,8 +501,11 @@
       <c r="G3">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>43800</v>
       </c>
@@ -515,8 +527,11 @@
       <c r="G4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>43831</v>
       </c>
@@ -538,8 +553,11 @@
       <c r="G5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>43862</v>
       </c>
@@ -561,8 +579,11 @@
       <c r="G6">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>43891</v>
       </c>
@@ -584,8 +605,11 @@
       <c r="G7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>43922</v>
       </c>
@@ -607,8 +631,11 @@
       <c r="G8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>43952</v>
       </c>
@@ -630,8 +657,11 @@
       <c r="G9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>43983</v>
       </c>
@@ -653,8 +683,11 @@
       <c r="G10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>44013</v>
       </c>
@@ -676,8 +709,11 @@
       <c r="G11">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>44044</v>
       </c>
@@ -699,8 +735,11 @@
       <c r="G12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>44075</v>
       </c>
@@ -722,8 +761,11 @@
       <c r="G13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>44105</v>
       </c>
@@ -745,8 +787,11 @@
       <c r="G14">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>44136</v>
       </c>
@@ -768,8 +813,11 @@
       <c r="G15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>44166</v>
       </c>
@@ -791,8 +839,11 @@
       <c r="G16">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>44197</v>
       </c>
@@ -814,8 +865,11 @@
       <c r="G17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>44228</v>
       </c>
@@ -837,8 +891,11 @@
       <c r="G18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>44256</v>
       </c>
@@ -860,8 +917,11 @@
       <c r="G19">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>44287</v>
       </c>
@@ -883,8 +943,11 @@
       <c r="G20">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>44317</v>
       </c>
@@ -906,8 +969,11 @@
       <c r="G21">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>44348</v>
       </c>
@@ -929,8 +995,11 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>44378</v>
       </c>
@@ -952,8 +1021,11 @@
       <c r="G23">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>44409</v>
       </c>
@@ -975,8 +1047,11 @@
       <c r="G24">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>44440</v>
       </c>
@@ -998,8 +1073,11 @@
       <c r="G25">
         <v>2.625</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>44470</v>
       </c>
@@ -1021,8 +1099,11 @@
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>44501</v>
       </c>
@@ -1044,8 +1125,11 @@
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>44531</v>
       </c>
@@ -1067,8 +1151,11 @@
       <c r="G28">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>44562</v>
       </c>
@@ -1090,8 +1177,11 @@
       <c r="G29">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>44593</v>
       </c>
@@ -1113,8 +1203,11 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>44621</v>
       </c>
@@ -1136,8 +1229,11 @@
       <c r="G31">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>44652</v>
       </c>
@@ -1159,8 +1255,11 @@
       <c r="G32">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>44682</v>
       </c>
@@ -1182,8 +1281,11 @@
       <c r="G33">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>44713</v>
       </c>
@@ -1205,8 +1307,11 @@
       <c r="G34">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>44743</v>
       </c>
@@ -1228,8 +1333,11 @@
       <c r="G35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>44774</v>
       </c>
@@ -1251,8 +1359,11 @@
       <c r="G36">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>44805</v>
       </c>
@@ -1274,8 +1385,11 @@
       <c r="G37">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>44835</v>
       </c>
@@ -1297,8 +1411,11 @@
       <c r="G38">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>44866</v>
       </c>
@@ -1320,8 +1437,11 @@
       <c r="G39">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>44896</v>
       </c>
@@ -1343,8 +1463,11 @@
       <c r="G40">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>44927</v>
       </c>
@@ -1365,6 +1488,9 @@
       </c>
       <c r="G41">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
